--- a/root_node/multidim_env/datos_verificacion_sigmoid_1como7.xlsx
+++ b/root_node/multidim_env/datos_verificacion_sigmoid_1como7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.1824285984039307</v>
+        <v>0.1710057258605957</v>
       </c>
       <c r="F1" t="n">
         <v>86.61322122801265</v>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="J1" t="n">
-        <v>0.2066259384155273</v>
+        <v>0.2466824054718018</v>
       </c>
       <c r="K1" t="n">
-        <v>74.07278510098052</v>
+        <v>75.35057291078979</v>
       </c>
       <c r="L1" t="inlineStr">
         <is>
@@ -489,11 +489,15 @@
           <t>verif_bounds_prop</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>0.0004737377166748047</v>
-      </c>
-      <c r="F2" t="n">
-        <v>74.07278510098052</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -502,7 +506,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -510,11 +514,15 @@
           <t>verif_bounds</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>0.0003874301910400391</v>
-      </c>
-      <c r="K2" t="n">
-        <v>74.07278510098052</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -523,7 +531,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
     </row>
@@ -543,10 +551,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3741581439971924</v>
+        <v>0.3543550968170166</v>
       </c>
       <c r="F3" t="n">
-        <v>1.073609791018231e+22</v>
+        <v>0.2588347761028013</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -564,10 +572,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.3052101135253906</v>
+        <v>0.2522459030151367</v>
       </c>
       <c r="K3" t="n">
-        <v>1.073481208708457e+22</v>
+        <v>0.1858536937294503</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -596,10 +604,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4404144287109375</v>
+        <v>0.2794737815856934</v>
       </c>
       <c r="F4" t="n">
-        <v>51.91523224292149</v>
+        <v>435.9629171089122</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -617,10 +625,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.3545494079589844</v>
+        <v>0.399954080581665</v>
       </c>
       <c r="K4" t="n">
-        <v>7.999699753544227</v>
+        <v>7.999699403643812</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -648,11 +656,15 @@
           <t>verif_bounds_prop</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>0.0004186630249023438</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7.999699753544227</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -661,7 +673,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -670,10 +682,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.2807321548461914</v>
+        <v>0.1459290981292725</v>
       </c>
       <c r="K5" t="n">
-        <v>2.995096366137441e+22</v>
+        <v>262.5230269735416</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -701,11 +713,15 @@
           <t>verif_bounds_prop</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>4.935264587402344e-05</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.995096366137441e+22</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -714,7 +730,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -722,11 +738,15 @@
           <t>verif_bounds</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>4.410743713378906e-05</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.995096366137441e+22</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -735,7 +755,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
     </row>
@@ -754,11 +774,15 @@
           <t>verif_bounds_prop</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>6.246566772460938e-05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.995096366137441e+22</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -767,7 +791,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -775,11 +799,15 @@
           <t>verif_bounds</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>5.102157592773438e-05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.995096366137441e+22</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -788,7 +816,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
     </row>
@@ -807,11 +835,15 @@
           <t>verif_bounds_prop</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>5.292892456054688e-05</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.995096366137441e+22</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -820,7 +852,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -828,11 +860,15 @@
           <t>verif_bounds</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>4.720687866210938e-05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.995096366137441e+22</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -841,7 +877,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
     </row>
@@ -861,10 +897,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.08016157150268555</v>
+        <v>0.05807304382324219</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002574116656097747</v>
+        <v>2.839166630695274e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -881,11 +917,15 @@
           <t>verif_bounds</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>0.000339508056640625</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0002574116656097747</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -894,7 +934,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
     </row>
@@ -914,7 +954,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.116352796554565</v>
+        <v>1.120492458343506</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -935,7 +975,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.817638635635376</v>
+        <v>0.8189628124237061</v>
       </c>
       <c r="K10" t="n">
         <v>0.01841761546220572</v>
@@ -967,10 +1007,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.4541623592376709</v>
+        <v>0.3754661083221436</v>
       </c>
       <c r="F11" t="n">
-        <v>1.000265336165871e+22</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -979,7 +1019,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -987,11 +1027,15 @@
           <t>verif_bounds</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>4.76837158203125e-05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.000265336165871e+22</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1000,7 +1044,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1064,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.033651828765869</v>
+        <v>5.036495208740234</v>
       </c>
       <c r="F12" t="n">
         <v>56.76805203497781</v>
@@ -1041,7 +1085,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>4.953693151473999</v>
+        <v>4.94683051109314</v>
       </c>
       <c r="K12" t="n">
         <v>56.76805203005711</v>
@@ -1052,642 +1096,6 @@
         </is>
       </c>
       <c r="M12" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0.1800858974456787</v>
-      </c>
-      <c r="F13" t="n">
-        <v>86.61322122801265</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>0.2068147659301758</v>
-      </c>
-      <c r="K13" t="n">
-        <v>74.07278510098052</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0004763603210449219</v>
-      </c>
-      <c r="F14" t="n">
-        <v>74.07278510098052</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0003745555877685547</v>
-      </c>
-      <c r="K14" t="n">
-        <v>74.07278510098052</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0.3739640712738037</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.073609791018231e+22</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>0.3060941696166992</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.073481208708457e+22</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0.4414112567901611</v>
-      </c>
-      <c r="F16" t="n">
-        <v>51.91523224292149</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>0.3548328876495361</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.999699753544227</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0004291534423828125</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7.999699753544227</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>0.2788782119750977</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.995096366137441e+22</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>5.078315734863281e-05</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.995096366137441e+22</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>4.673004150390625e-05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.995096366137441e+22</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>4.38690185546875e-05</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.995096366137441e+22</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>4.9591064453125e-05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.995096366137441e+22</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>5.269050598144531e-05</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.995096366137441e+22</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>4.720687866210938e-05</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.995096366137441e+22</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0.07936954498291016</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0002574116656097747</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>0.000324249267578125</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.0002574116656097747</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>1.111365556716919</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>0.8196830749511719</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.01841761546220572</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B23" t="n">
-        <v>10</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>0.450814962387085</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.000265336165871e+22</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>4.625320434570312e-05</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.000265336165871e+22</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>5.036829471588135</v>
-      </c>
-      <c r="F24" t="n">
-        <v>56.76805203497781</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>4.939294099807739</v>
-      </c>
-      <c r="K24" t="n">
-        <v>56.76805203005711</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
         <is>
           <t>totalnodelimit</t>
         </is>
